--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1231.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1231.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>3.609803280686871</v>
+        <v>1.202777504920959</v>
       </c>
       <c r="B1">
-        <v>2.539362409440618</v>
+        <v>1.887801051139832</v>
       </c>
       <c r="C1">
-        <v>2.054677817132124</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>1.883632890327739</v>
+        <v>1.857860088348389</v>
       </c>
       <c r="E1">
-        <v>1.597072570804885</v>
+        <v>1.20584511756897</v>
       </c>
     </row>
   </sheetData>
